--- a/README/多功能电源modbus规约.xlsx
+++ b/README/多功能电源modbus规约.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>类型</t>
   </si>
@@ -132,19 +132,12 @@
     <t>06</t>
   </si>
   <si>
-    <t>[5:7]</t>
+    <t>[4:7]</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PWM8 风速：</t>
+      <t xml:space="preserve">PWM8 风速：
+</t>
     </r>
     <r>
       <rPr>
@@ -154,7 +147,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
+      <t>000: 0档
 001：1档
 010：2档
 011：3档
@@ -164,18 +157,10 @@
     </r>
   </si>
   <si>
-    <t>[2:4]</t>
+    <t>[0:3]</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>PWM7 风速</t>
     </r>
     <r>
@@ -187,65 +172,13 @@
         <scheme val="minor"/>
       </rPr>
       <t>：
+000: 0档
 001：1档
 010：2档
 011：3档
 100：4档
 101：5档
 110：6档</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PWM8开关状态：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0：开启
-1：关闭</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PWM7开关状态：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0：开启
-1：关闭</t>
     </r>
   </si>
   <si>
@@ -1614,10 +1547,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1743,7 +1676,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4">
-        <v>30002</v>
+        <v>30003</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>20</v>
@@ -1781,7 +1714,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4">
-        <v>30003</v>
+        <v>30004</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
@@ -1819,7 +1752,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4">
-        <v>30004</v>
+        <v>30005</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="4" t="s">
@@ -1879,7 +1812,7 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" ht="98" spans="1:10">
+    <row r="13" ht="112" spans="1:10">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="4"/>
@@ -1895,7 +1828,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" ht="98" spans="1:10">
+    <row r="14" ht="112" spans="1:10">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="4"/>
@@ -1911,55 +1844,52 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" ht="42" spans="1:13">
+    <row r="15" spans="1:10">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="C15" s="4">
+        <v>40002</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>38</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="M15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" ht="42" spans="1:10">
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>40</v>
+      <c r="E16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" ht="42" spans="1:10">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="4">
-        <v>40002</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>28</v>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1969,10 +1899,14 @@
     <row r="18" spans="1:10">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="4">
+        <v>40003</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E18" s="4" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>28</v>
@@ -1980,15 +1914,17 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" ht="42" spans="1:10">
+      <c r="J18" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4">
-        <v>0</v>
+      <c r="E19" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>43</v>
@@ -1996,169 +1932,131 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" ht="42" spans="1:10">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="4">
-        <v>40003</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="C21" s="4">
+        <v>40004</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" ht="42" spans="1:10">
+      <c r="J21" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="E22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>47</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="16"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="4">
-        <v>40004</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>48</v>
-      </c>
+        <v>40005</v>
+      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="4">
-        <v>40005</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="12"/>
-    </row>
   </sheetData>
   <mergeCells count="34">
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A26"/>
+    <mergeCell ref="A12:A24"/>
     <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B12:B26"/>
+    <mergeCell ref="B12:B24"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D24"/>
     <mergeCell ref="G2:G11"/>
-    <mergeCell ref="G12:G26"/>
-    <mergeCell ref="H12:H26"/>
-    <mergeCell ref="I12:I26"/>
+    <mergeCell ref="G12:G24"/>
+    <mergeCell ref="H12:H24"/>
+    <mergeCell ref="I12:I24"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J11"/>
-    <mergeCell ref="J12:J16"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J21:J24"/>
     <mergeCell ref="H2:I11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
